--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020421.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020421.xlsx_with_dialog_acts.xlsx
@@ -759,12 +759,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1203,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2607,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2887,12 +2887,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3883,12 +3883,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5447,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7659,12 +7659,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8307,12 +8307,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8347,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10427,12 +10427,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11107,12 +11107,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11467,12 +11467,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12271,12 +12271,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12471,12 +12471,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12551,12 +12551,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13311,12 +13311,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13979,12 +13979,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14169,12 +14169,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14743,12 +14743,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15089,12 +15089,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16039,12 +16039,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16191,12 +16191,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
